--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="陈思平" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,21 +20,22 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="丁惠君" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="刁现芬" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="沈圆圆" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="陆敏华" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="张新宇" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="孙怡雯" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="李乔亮" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="齐素文" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="倪东" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="黄炳升" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="徐敏" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="雷柏英" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="常春起" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="陈雯雯" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="罗永祥" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="王倪传" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="张治国" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="董磊" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="周永进" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="陆敏华" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="张新宇" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="孙怡雯" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="李乔亮" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="齐素文" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="倪东" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="黄炳升" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="徐敏" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="雷柏英" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="常春起" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="陈雯雯" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="罗永祥" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="王倪传" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="张治国" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="董磊" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>题名</t>
   </si>
@@ -1043,6 +1044,15 @@
     <t>陈昕; 郭燕荣</t>
   </si>
   <si>
+    <t>融合超声影像动态评估中风偏瘫患者内侧腓肠肌状态</t>
+  </si>
+  <si>
+    <t>张旭东;钟昇;杨晓娟;周永进;杨万章;向云;王俊;王碧涵;杨钧鹏;陈昕</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
     <t>手背静脉图像ROI提取算法研究</t>
   </si>
   <si>
@@ -1085,6 +1095,15 @@
     <t>2016-03-22 10:47</t>
   </si>
   <si>
+    <t>基于对称区域生长算法的超声医学图像分割方法</t>
+  </si>
+  <si>
+    <t>张建;汪天富;李德玉;林江莉;唐红;饶莉</t>
+  </si>
+  <si>
+    <t>2007-06-25</t>
+  </si>
+  <si>
     <t>医学超声评价胎盘功能研究进展</t>
   </si>
   <si>
@@ -1139,9 +1158,36 @@
     <t>微计算机信息</t>
   </si>
   <si>
+    <t>新型医学信号处理实验平台的设计与实现</t>
+  </si>
+  <si>
+    <t>叶继伦; 顾家军; 刁现芬; 张旭; 汪天富</t>
+  </si>
+  <si>
+    <t>实验科学与技术</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
     <t>2011-06-15</t>
   </si>
   <si>
+    <t>超声医学图像滤波和对比度增强新方法</t>
+  </si>
+  <si>
+    <t>陈科; 林江莉; 李德玉; 汪天富</t>
+  </si>
+  <si>
+    <t>2007-04-25</t>
+  </si>
+  <si>
+    <t>基于形态学重构的超声医学图像滤波方法</t>
+  </si>
+  <si>
+    <t>张建炜; 林江莉; 李德玉; 汪天富</t>
+  </si>
+  <si>
     <t>基于先验概率和统计形状的前列腺超声图像自动分割方法</t>
   </si>
   <si>
@@ -1158,42 +1204,6 @@
   </si>
   <si>
     <t>2008-06-15</t>
-  </si>
-  <si>
-    <t>新型医学信号处理实验平台的设计与实现</t>
-  </si>
-  <si>
-    <t>叶继伦; 顾家军; 刁现芬; 张旭; 汪天富</t>
-  </si>
-  <si>
-    <t>实验科学与技术</t>
-  </si>
-  <si>
-    <t>2017-02-28</t>
-  </si>
-  <si>
-    <t>超声医学图像滤波和对比度增强新方法</t>
-  </si>
-  <si>
-    <t>陈科; 林江莉; 李德玉; 汪天富</t>
-  </si>
-  <si>
-    <t>2007-04-25</t>
-  </si>
-  <si>
-    <t>基于形态学重构的超声医学图像滤波方法</t>
-  </si>
-  <si>
-    <t>张建炜; 林江莉; 李德玉; 汪天富</t>
-  </si>
-  <si>
-    <t>2007-06-25</t>
-  </si>
-  <si>
-    <t>基于对称区域生长算法的超声医学图像分割方法</t>
-  </si>
-  <si>
-    <t>张建;汪天富;李德玉;林江莉;唐红;饶莉</t>
   </si>
   <si>
     <t>导语:中文认知加工的脑图谱研究</t>
@@ -1831,19 +1841,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1871,28 +1874,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -2188,18 +2171,11 @@
   </sheetPr>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="38.875"/>
-    <col customWidth="1" max="2" min="2" width="38.375"/>
-    <col customWidth="1" max="3" min="3" width="30.625"/>
-    <col customWidth="1" max="4" min="4" width="18.5"/>
-    <col customWidth="1" max="5" min="5" width="98.5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3665,7 +3641,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3719,16 +3694,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
         <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3736,16 +3711,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -3753,16 +3728,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3770,16 +3745,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3787,16 +3762,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -3804,16 +3779,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
         <v>450</v>
       </c>
-      <c r="C8" t="s">
-        <v>447</v>
-      </c>
       <c r="D8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -3821,13 +3796,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D9" t="s">
         <v>293</v>
@@ -3838,16 +3813,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -3855,16 +3830,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3872,16 +3847,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -3889,16 +3864,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" t="s">
         <v>466</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>463</v>
       </c>
-      <c r="C13" t="s">
-        <v>460</v>
-      </c>
       <c r="D13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -3906,16 +3881,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D14" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -3923,16 +3898,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -3957,16 +3932,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -3974,16 +3949,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D18" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -3991,16 +3966,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -4008,13 +3983,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B20" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -4095,16 +4070,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4182,13 +4157,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -4199,16 +4174,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4252,16 +4227,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -4269,16 +4244,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4286,16 +4261,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4303,16 +4278,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4320,16 +4295,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -4337,16 +4312,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4354,16 +4329,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4371,16 +4346,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -4388,16 +4363,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
         <v>372</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>373</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>374</v>
-      </c>
-      <c r="D10" t="s">
-        <v>375</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -4405,16 +4380,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -4422,16 +4397,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -4439,16 +4414,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -4628,16 +4603,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -4666,6 +4641,59 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4749,16 +4777,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4766,10 +4794,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
         <v>245</v>
@@ -4783,16 +4811,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E7" t="s">
         <v>247</v>
@@ -4803,7 +4831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4853,13 +4881,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
         <v>145</v>
@@ -4870,16 +4898,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4904,16 +4932,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -4972,10 +5000,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
         <v>245</v>
@@ -4992,7 +5020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5025,16 +5053,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -5042,16 +5070,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5059,16 +5087,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -5079,7 +5107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5197,13 +5225,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D7" t="s">
         <v>293</v>
@@ -5251,7 +5279,536 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5284,13 +5841,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
         <v>293</v>
@@ -5301,16 +5858,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5318,16 +5875,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -5335,16 +5892,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="s">
         <v>524</v>
       </c>
-      <c r="B5" t="s">
-        <v>521</v>
-      </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5352,16 +5909,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -5369,16 +5926,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5386,16 +5943,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -5437,16 +5994,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D11" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -5457,519 +6014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" t="s">
-        <v>315</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" t="s">
-        <v>321</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>324</v>
-      </c>
-      <c r="D26" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>326</v>
-      </c>
-      <c r="B27" t="s">
-        <v>327</v>
-      </c>
-      <c r="C27" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" t="s">
-        <v>329</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>330</v>
-      </c>
-      <c r="B28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B29" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6019,16 +6064,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -6087,16 +6132,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -6138,16 +6183,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
         <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -6155,16 +6200,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C11" t="s">
         <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -6189,10 +6234,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B13" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -6209,7 +6254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6242,16 +6287,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -6259,13 +6304,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
         <v>309</v>
@@ -6276,16 +6321,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -6296,7 +6341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6329,16 +6374,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -6346,16 +6391,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -6363,16 +6408,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -6380,89 +6425,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s">
         <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6503,16 +6478,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -6520,16 +6495,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>568</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>569</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -6546,7 +6521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6573,18 +6548,35 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" t="s">
         <v>571</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>572</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>573</v>
       </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6635,7 +6627,7 @@
         <v>576</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -6679,13 +6671,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" t="s">
         <v>578</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>579</v>
-      </c>
-      <c r="C2" t="s">
-        <v>569</v>
       </c>
       <c r="D2" t="s">
         <v>580</v>
@@ -6732,16 +6724,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>581</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>582</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>572</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>583</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -6758,7 +6750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6785,86 +6777,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>591</v>
-      </c>
-      <c r="B6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C6" t="s">
-        <v>583</v>
-      </c>
-      <c r="D6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6923,16 +6847,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -6940,16 +6864,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -6991,16 +6915,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -7025,16 +6949,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -7076,16 +7000,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -7093,16 +7017,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -7110,16 +7034,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -7127,16 +7051,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -7144,16 +7068,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -7161,16 +7085,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -7178,16 +7102,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -7195,16 +7119,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>324</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -7212,16 +7136,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -7229,16 +7153,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -7246,16 +7170,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -7280,16 +7204,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -7297,16 +7221,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>366</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -7314,16 +7238,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -7331,16 +7255,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -7348,16 +7272,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -7365,13 +7289,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>363</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
@@ -7382,16 +7306,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -7399,16 +7323,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -7416,16 +7340,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -7433,16 +7357,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -7450,16 +7374,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -7467,16 +7391,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -7484,16 +7408,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -7501,16 +7425,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -7518,16 +7442,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -7535,16 +7459,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -7552,16 +7476,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -7569,16 +7493,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -7586,16 +7510,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -7603,16 +7527,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -7620,16 +7544,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -7637,16 +7561,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -7654,16 +7578,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -7671,16 +7595,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -7688,16 +7612,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -7705,16 +7629,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -7722,16 +7646,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -7739,16 +7663,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -7756,188 +7680,309 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E56" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="B61" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="E62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7979,16 +8024,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -8102,13 +8147,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -8136,16 +8181,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -8153,16 +8198,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -8187,16 +8232,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -8204,16 +8249,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -8221,16 +8266,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -8274,16 +8319,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -8308,10 +8353,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -8325,16 +8370,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -8359,16 +8404,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -8376,16 +8421,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -8402,7 +8447,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -8410,16 +8455,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -8427,16 +8472,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -8461,16 +8506,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>429</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -8478,16 +8523,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -8501,7 +8546,7 @@
         <v>431</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>432</v>
@@ -8518,10 +8563,10 @@
         <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -8529,16 +8574,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -8805,10 +8850,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
         <v>130</v>
@@ -8822,16 +8867,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -8856,10 +8901,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -8873,16 +8918,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -8890,16 +8935,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -8907,10 +8952,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -8924,16 +8969,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -8941,16 +8986,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -8958,16 +9003,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -8975,16 +9020,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" t="s">
         <v>372</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>373</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>374</v>
-      </c>
-      <c r="D14" t="s">
-        <v>375</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -831,16 +831,16 @@
     <t>2013-12-06</t>
   </si>
   <si>
+    <t>磁生物学效应的共性分子机制研究</t>
+  </si>
+  <si>
+    <t>王晓梅; 张小云; 陈思平</t>
+  </si>
+  <si>
     <t>基于实时三维超声成像的偏心性二尖瓣反流定量评价</t>
   </si>
   <si>
     <t>汪天富;文晓慧;李德玉;饶莉;唐红;林江莉;陈思平</t>
-  </si>
-  <si>
-    <t>磁生物学效应的共性分子机制研究</t>
-  </si>
-  <si>
-    <t>王晓梅; 张小云; 陈思平</t>
   </si>
   <si>
     <t>外源性hTERTC27抑制鼻咽癌C666-1细胞株生长的体外研究</t>
@@ -3528,10 +3528,10 @@
         <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E80" t="s">
         <v>247</v>
@@ -3545,10 +3545,10 @@
         <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E81" t="s">
         <v>247</v>
@@ -7187,16 +7187,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -7204,16 +7204,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -7748,10 +7748,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C56" t="s">
         <v>258</v>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
   <si>
     <t>题名</t>
   </si>
@@ -32,6 +32,237 @@
     <t>数据库</t>
   </si>
   <si>
+    <t>基于脉搏波识别的电子血压计智能充气研究</t>
+  </si>
+  <si>
+    <t>张旭; 宋学东; 顾家军; 叶继伦; 陈思平</t>
+  </si>
+  <si>
+    <t>中国医疗器械杂志</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>期刊</t>
+  </si>
+  <si>
+    <t>基于超像素和支持向量机的阴道细菌自动检测</t>
+  </si>
+  <si>
+    <t>宋有义;雷柏英;何亮;曾忠铭;周煜翔;倪东;陈思平;汪天富</t>
+  </si>
+  <si>
+    <t>中国生物医学工程学报</t>
+  </si>
+  <si>
+    <t>2015-04-20</t>
+  </si>
+  <si>
+    <t>便携式微型睡眠监测系统的设计及应用</t>
+  </si>
+  <si>
+    <t>叶继伦; 杜风玲; 张旭; 陈思平; 汪天富</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>血流向量超声成像技术在评价颈动脉硬化中的应用进展</t>
+  </si>
+  <si>
+    <t>杜宜纲; 刘德杰; 樊睿; 沈圆圆; 陈思平</t>
+  </si>
+  <si>
+    <t>中华医学超声杂志(电子版)</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
+  </si>
+  <si>
+    <t>旁流呼气末二氧化碳测量在临床全身麻醉手术中有效性评估 优先出版</t>
+  </si>
+  <si>
+    <t>张旭; 宋学东; 叶继伦; 陈思平; 汪天富</t>
+  </si>
+  <si>
+    <t>生物医学工程与临床</t>
+  </si>
+  <si>
+    <t>2015-09-01 09:15</t>
+  </si>
+  <si>
+    <t>基于超声图像的运动肌肉疲劳研究</t>
+  </si>
+  <si>
+    <t>温慧莹;陈昕;王君;钟昇;易万贯;侯莉娟</t>
+  </si>
+  <si>
+    <t>北京师范大学学报(自然科学版)</t>
+  </si>
+  <si>
+    <t>2015-10-15</t>
+  </si>
+  <si>
+    <t>医学超声评价胎盘功能研究进展</t>
+  </si>
+  <si>
+    <t>李欣遥; 姚远; 李胜利; 倪东; 汪天富</t>
+  </si>
+  <si>
+    <t>生物医学工程学杂志</t>
+  </si>
+  <si>
+    <t>2015-08-25</t>
+  </si>
+  <si>
+    <t>基于先验概率和统计形状的前列腺超声图像自动分割方法</t>
+  </si>
+  <si>
+    <t>黄建波; 倪东; 汪天富</t>
+  </si>
+  <si>
+    <t>生物医学工程研究</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>不同物理场处理对磷脂分散体系的影响 优先出版</t>
+  </si>
+  <si>
+    <t>但果; 刘志伟; 贾晓; 曾新安</t>
+  </si>
+  <si>
+    <t>高压物理学报</t>
+  </si>
+  <si>
+    <t>2015-09-21 17:10</t>
+  </si>
+  <si>
+    <t>血凝素蛋白及抗体相互作用的太赫兹光谱主成分分析 优先出版</t>
+  </si>
+  <si>
+    <t>孙怡雯; 钟俊兰; 左剑; 张存林; 但果</t>
+  </si>
+  <si>
+    <t>物理学报</t>
+  </si>
+  <si>
+    <t>2015-06-29 14:28</t>
+  </si>
+  <si>
+    <t>麻醉过程中脑电信号处理方法研究</t>
+  </si>
+  <si>
+    <t>顾家军; 黄燕; 叶继伦; 王开隽; 张梅梅</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>利用CBIA与WSN构建的植物叶片分类系统 优先出版</t>
+  </si>
+  <si>
+    <t>李晨;姚玮;韩忠伟;高一鸿;Florian Schmidt;蒋涛;丁惠君;王振宇;申旻旻</t>
+  </si>
+  <si>
+    <t>计算机应用研究</t>
+  </si>
+  <si>
+    <t>2015-05-07 10:52</t>
+  </si>
+  <si>
+    <t>低频超声联合微泡治疗阿尔茨海默症的研究进展</t>
+  </si>
+  <si>
+    <t>陈高舒; 郭瑾璇; 杨细飞; 应明; 沈圆圆</t>
+  </si>
+  <si>
+    <t>生物医学工程学进展</t>
+  </si>
+  <si>
+    <t>基于高频超声的小鼠海马区成像的研究</t>
+  </si>
+  <si>
+    <t>谢敏; 陆敏华; 陶子; 庞春颖</t>
+  </si>
+  <si>
+    <t>长春理工大学学报(自然科学版)</t>
+  </si>
+  <si>
+    <t>2015-04-15</t>
+  </si>
+  <si>
+    <t>HCMV感染的标志性蛋白研究进展</t>
+  </si>
+  <si>
+    <t>李仲航; 谢妮; 齐素文</t>
+  </si>
+  <si>
+    <t>热带医学杂志</t>
+  </si>
+  <si>
+    <t>2015-04-28</t>
+  </si>
+  <si>
+    <t>基于量子点荧光标记技术检测SCCa方法的研究</t>
+  </si>
+  <si>
+    <t>田峰; 齐素文</t>
+  </si>
+  <si>
+    <t>激光杂志</t>
+  </si>
+  <si>
+    <t>2015-04-25</t>
+  </si>
+  <si>
+    <t>基于磁颗粒化学发光免疫分析方法检测鳞状细胞癌抗原</t>
+  </si>
+  <si>
+    <t>国际检验医学杂志</t>
+  </si>
+  <si>
+    <t>2015-07-15</t>
+  </si>
+  <si>
+    <t>两种检测方法测定总胆红素的比较</t>
+  </si>
+  <si>
+    <t>深圳中西医结合杂志</t>
+  </si>
+  <si>
+    <t>2015-05-30</t>
+  </si>
+  <si>
+    <t>Ⅲ度以上会阴撕裂伤修补的临床研究</t>
+  </si>
+  <si>
+    <t>陈小岚;郑潇潇;田萍;刘妮妮;何琼;孙军;王满;汪长浩;马翔;杨峰;徐敏</t>
+  </si>
+  <si>
+    <t>第十八届中国中西医结合学会大肠肛门病专业委员会学术会议暨甘肃省第五届结直肠肛门外科学术年会论文汇编</t>
+  </si>
+  <si>
+    <t>2015-08-28</t>
+  </si>
+  <si>
+    <t>中国会议</t>
+  </si>
+  <si>
+    <t>基于序统计量相关分析的静息态大脑语言功能连接网络的时间可靠性及偏侧化研究 优先出版</t>
+  </si>
+  <si>
+    <t>师雪姣; 常春起; 胡南; 孙兵</t>
+  </si>
+  <si>
+    <t>中国医学影像学杂志</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:50</t>
+  </si>
+  <si>
     <t>超声编码激励产生声辐射力的数值模拟</t>
   </si>
   <si>
@@ -44,9 +275,6 @@
     <t>2011-03-31</t>
   </si>
   <si>
-    <t>期刊</t>
-  </si>
-  <si>
     <t>脚踏实地,开拓创新,努力建设一流的实验室支撑体系</t>
   </si>
   <si>
@@ -95,33 +323,54 @@
     <t>陈思平; 贾富仓; 陶笃纯</t>
   </si>
   <si>
-    <t>中国医疗器械杂志</t>
-  </si>
-  <si>
     <t>2007-01-30</t>
   </si>
   <si>
     <t>超声医学基础</t>
   </si>
   <si>
-    <t>中华医学超声杂志(电子版)</t>
-  </si>
-  <si>
     <t>2009-04-01</t>
   </si>
   <si>
+    <t>窄带Level Set与可视化技术在耳蜗分割中的应用</t>
+  </si>
+  <si>
+    <t>刁现芬; 陈思平; 梁长虹; 吴佩娜</t>
+  </si>
+  <si>
+    <t>2007-10-15</t>
+  </si>
+  <si>
+    <t>医疗器械验证中的临床方法探讨</t>
+  </si>
+  <si>
+    <t>叶继伦; 陈思平; 汪天富; 陈月明</t>
+  </si>
+  <si>
+    <t>2011-09-30</t>
+  </si>
+  <si>
     <t>无创及微创血糖仪研究进展</t>
   </si>
   <si>
     <t>黄絮; 李勇; 陈思平</t>
   </si>
   <si>
-    <t>中国生物医学工程学报</t>
-  </si>
-  <si>
     <t>2016-10-20</t>
   </si>
   <si>
+    <t>实时超声弹性成像原理与方法</t>
+  </si>
+  <si>
+    <t>孙瑞超;唐亚男;李灵;陆敏华;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>中国医疗器械信息</t>
+  </si>
+  <si>
+    <t>2013-06-25</t>
+  </si>
+  <si>
     <t>CdSe/CdS/ZnS量子点对体外培养成熟卵母细胞的侵入性研究</t>
   </si>
   <si>
@@ -146,61 +395,85 @@
     <t>2014-04-15</t>
   </si>
   <si>
-    <t>窄带Level Set与可视化技术在耳蜗分割中的应用</t>
-  </si>
-  <si>
-    <t>刁现芬; 陈思平; 梁长虹; 吴佩娜</t>
-  </si>
-  <si>
-    <t>生物医学工程学杂志</t>
-  </si>
-  <si>
-    <t>2007-10-15</t>
-  </si>
-  <si>
-    <t>医疗器械验证中的临床方法探讨</t>
-  </si>
-  <si>
-    <t>叶继伦; 陈思平; 汪天富; 陈月明</t>
-  </si>
-  <si>
-    <t>2011-09-30</t>
-  </si>
-  <si>
-    <t>基于脉搏波识别的电子血压计智能充气研究</t>
-  </si>
-  <si>
-    <t>张旭; 宋学东; 顾家军; 叶继伦; 陈思平</t>
-  </si>
-  <si>
-    <t>2015-03-31</t>
-  </si>
-  <si>
-    <t>基于超像素和支持向量机的阴道细菌自动检测</t>
-  </si>
-  <si>
-    <t>宋有义;雷柏英;何亮;曾忠铭;周煜翔;倪东;陈思平;汪天富</t>
-  </si>
-  <si>
-    <t>2015-04-20</t>
-  </si>
-  <si>
-    <t>便携式微型睡眠监测系统的设计及应用</t>
-  </si>
-  <si>
-    <t>叶继伦; 杜风玲; 张旭; 陈思平; 汪天富</t>
-  </si>
-  <si>
-    <t>2015-05-31</t>
-  </si>
-  <si>
-    <t>血流向量超声成像技术在评价颈动脉硬化中的应用进展</t>
-  </si>
-  <si>
-    <t>杜宜纲; 刘德杰; 樊睿; 沈圆圆; 陈思平</t>
-  </si>
-  <si>
-    <t>2015-09-01</t>
+    <t>基于DSP EMIF口及FPGA设计并实现多DSP嵌入式系统</t>
+  </si>
+  <si>
+    <t>周委; 陈思平; 赵文龙; 尹立东; 刘国文</t>
+  </si>
+  <si>
+    <t>电子技术应用</t>
+  </si>
+  <si>
+    <t>2008-06-06</t>
+  </si>
+  <si>
+    <t>采用局部相位的Nonlocal低剂量CT图像去噪</t>
+  </si>
+  <si>
+    <t>郝立巍; 程远雄; 汪天富; 陈思平</t>
+  </si>
+  <si>
+    <t>华中科技大学学报(自然科学版)</t>
+  </si>
+  <si>
+    <t>2012-07-23</t>
+  </si>
+  <si>
+    <t>医学超声影像技术及展望</t>
+  </si>
+  <si>
+    <t>林轶翰; 陈思平</t>
+  </si>
+  <si>
+    <t>医疗装备</t>
+  </si>
+  <si>
+    <t>2006-06-30</t>
+  </si>
+  <si>
+    <t>基于相移的实时超声弹性成像方法</t>
+  </si>
+  <si>
+    <t>孙瑞超;唐亚男;谢林培;何丹妮;陆敏华;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>2013-06-20</t>
+  </si>
+  <si>
+    <t>超声弹性成像声辐射力激励模块设计</t>
+  </si>
+  <si>
+    <t>邱明波;李乔亮;陈昕;易万贯;唐浒;张欣茹;陈思平;汪天富</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>基于曲光线跟踪算法的超声成像实时模拟研究</t>
+  </si>
+  <si>
+    <t>倪东; 陈思平; 汪天富</t>
+  </si>
+  <si>
+    <t>2012-07-31</t>
+  </si>
+  <si>
+    <t>基于液晶模组的医学诊断仪器人机界面开发与移植</t>
+  </si>
+  <si>
+    <t>张会生;刘昕宇;李乔亮;饶捷;张小飞;王晓轩;林淑梅;尹力;陈思平;汪天富</t>
+  </si>
+  <si>
+    <t>2012-11-30</t>
+  </si>
+  <si>
+    <t>散斑照明宽场荧光层析显微成像技术研究</t>
+  </si>
+  <si>
+    <t>林浩铭;邵永红;屈军乐;尹君;陈思平;牛憨笨</t>
+  </si>
+  <si>
+    <t>2008-12-15</t>
   </si>
   <si>
     <t>基于局部Radon变换和卡尔曼滤波的超声图像肌束方向自动跟踪方法</t>
@@ -212,27 +485,12 @@
     <t>2016-04-20</t>
   </si>
   <si>
-    <t>实时超声弹性成像原理与方法</t>
-  </si>
-  <si>
-    <t>孙瑞超;唐亚男;李灵;陆敏华;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>中国医疗器械信息</t>
-  </si>
-  <si>
-    <t>2013-06-25</t>
-  </si>
-  <si>
     <t>低频超声联合微泡输送药物治疗脑胶质瘤的研究进展</t>
   </si>
   <si>
     <t>皮兆柯;李芳芳;李粤;黄纬键;陈依玲;沈圆圆;陈思平;陈昕</t>
   </si>
   <si>
-    <t>生物医学工程学进展</t>
-  </si>
-  <si>
     <t>2016-06-30</t>
   </si>
   <si>
@@ -245,12 +503,117 @@
     <t>2016-08-20</t>
   </si>
   <si>
+    <t>hTERTC27过表达对鼻咽癌C666-1细胞株增殖和凋亡的影响</t>
+  </si>
+  <si>
+    <t>林桂淼;王晓梅;林苏霞;余水红;吴世明;林李家宓;陈思平</t>
+  </si>
+  <si>
+    <t>肿瘤防治研究</t>
+  </si>
+  <si>
+    <t>2013-01-25</t>
+  </si>
+  <si>
+    <t>基于直方图信息和灰度偏移网格的数字减影图像灰度矫正算法</t>
+  </si>
+  <si>
+    <t>储颖; 唐超伦; 纪震; 牟轩沁; 陈思平</t>
+  </si>
+  <si>
+    <t>电子学报</t>
+  </si>
+  <si>
+    <t>2006-01-30</t>
+  </si>
+  <si>
+    <t>基于各向异性扩散的超声图像混合滤波方法</t>
+  </si>
+  <si>
+    <t>张新宇; 陈桓; 汪天富; 王睿; 陈思平</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>基于Gabor小波与Memetic算法的人脸识别方法</t>
+  </si>
+  <si>
+    <t>周家锐; 纪震; 沈琳琳; 朱泽轩; 陈思平</t>
+  </si>
+  <si>
+    <t>2012-04-15</t>
+  </si>
+  <si>
     <t>基于低秩理论的超声血流壁滤波器</t>
   </si>
   <si>
     <t>杜宜纲; 张梦一; 陈思平; 李勇</t>
   </si>
   <si>
+    <t>一种快速的全自动超声子宫图像分割算法</t>
+  </si>
+  <si>
+    <t>唐盛; 陈思平</t>
+  </si>
+  <si>
+    <t>2007-10-20</t>
+  </si>
+  <si>
+    <t>刚性微管内微泡动力学行为的有限元数值分析</t>
+  </si>
+  <si>
+    <t>邱晓晖;沈圆圆;钱建庭;刁现芬;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>2011-10-25</t>
+  </si>
+  <si>
+    <t>旋转恒定磁场对骨质疏松大鼠血清铁和铁调素的影响</t>
+  </si>
+  <si>
+    <t>王光笋;陈强;林桂淼;刘健华;王晓梅;张小云;陈思平</t>
+  </si>
+  <si>
+    <t>中国医学物理学杂志</t>
+  </si>
+  <si>
+    <t>2014-05-15</t>
+  </si>
+  <si>
+    <t>社区高血压患者远程监护系统的研究进展</t>
+  </si>
+  <si>
+    <t>王雄;陈思平;江光明;钟庆生;杨林;施兰</t>
+  </si>
+  <si>
+    <t>中国社区医师(医学专业)</t>
+  </si>
+  <si>
+    <t>2011-08-05</t>
+  </si>
+  <si>
+    <t>融合特征空间最小方差波束形成和广义相干系数的超声成像方法</t>
+  </si>
+  <si>
+    <t>孟德明; 陈昕; 戴明; 陈思平</t>
+  </si>
+  <si>
+    <t>2016-12-15</t>
+  </si>
+  <si>
+    <t>基于Snake算法的气道内超声序列图像的边界提取</t>
+  </si>
+  <si>
+    <t>2012-01-15</t>
+  </si>
+  <si>
+    <t>基于血管匹配的三维超声与CT图像的配准方法</t>
+  </si>
+  <si>
+    <t>2012-06-25</t>
+  </si>
+  <si>
     <t>医学超声单晶探头的进展及新技术</t>
   </si>
   <si>
@@ -260,85 +623,121 @@
     <t>2014-04-25</t>
   </si>
   <si>
-    <t>基于DSP EMIF口及FPGA设计并实现多DSP嵌入式系统</t>
-  </si>
-  <si>
-    <t>周委; 陈思平; 赵文龙; 尹立东; 刘国文</t>
-  </si>
-  <si>
-    <t>电子技术应用</t>
-  </si>
-  <si>
-    <t>2008-06-06</t>
-  </si>
-  <si>
-    <t>旋转恒定磁场对骨质疏松大鼠血清铁和铁调素的影响</t>
-  </si>
-  <si>
-    <t>王光笋;陈强;林桂淼;刘健华;王晓梅;张小云;陈思平</t>
-  </si>
-  <si>
-    <t>中国医学物理学杂志</t>
-  </si>
-  <si>
-    <t>2014-05-15</t>
-  </si>
-  <si>
-    <t>旁流呼气末二氧化碳测量在临床全身麻醉手术中有效性评估 优先出版</t>
-  </si>
-  <si>
-    <t>张旭; 宋学东; 叶继伦; 陈思平; 汪天富</t>
-  </si>
-  <si>
-    <t>生物医学工程与临床</t>
-  </si>
-  <si>
-    <t>2015-09-01 09:15</t>
-  </si>
-  <si>
-    <t>采用局部相位的Nonlocal低剂量CT图像去噪</t>
-  </si>
-  <si>
-    <t>郝立巍; 程远雄; 汪天富; 陈思平</t>
-  </si>
-  <si>
-    <t>华中科技大学学报(自然科学版)</t>
-  </si>
-  <si>
-    <t>2012-07-23</t>
-  </si>
-  <si>
-    <t>医学超声影像技术及展望</t>
-  </si>
-  <si>
-    <t>林轶翰; 陈思平</t>
-  </si>
-  <si>
-    <t>医疗装备</t>
-  </si>
-  <si>
-    <t>2006-06-30</t>
-  </si>
-  <si>
-    <t>基于相移的实时超声弹性成像方法</t>
-  </si>
-  <si>
-    <t>孙瑞超;唐亚男;谢林培;何丹妮;陆敏华;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>2013-06-20</t>
-  </si>
-  <si>
-    <t>融合特征空间最小方差波束形成和广义相干系数的超声成像方法</t>
-  </si>
-  <si>
-    <t>孟德明; 陈昕; 戴明; 陈思平</t>
-  </si>
-  <si>
-    <t>生物医学工程研究</t>
-  </si>
-  <si>
-    <t>2016-12-15</t>
+    <t>耳蜗长度的无创伤性测量及其横断面的提取</t>
+  </si>
+  <si>
+    <t>2007-02-20</t>
+  </si>
+  <si>
+    <t>表面波软组织黏弹性测量仿真的研究</t>
+  </si>
+  <si>
+    <t>林浩铭; 陈思平; 汪天富</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>一种通用的电路板自动测试系统的设计与实现</t>
+  </si>
+  <si>
+    <t>贾国龙; 陈思平; 赵文龙</t>
+  </si>
+  <si>
+    <t>科技情报开发与经济</t>
+  </si>
+  <si>
+    <t>2009-02-15</t>
+  </si>
+  <si>
+    <t>三维窄带水平集算法在内耳分割中的应用</t>
+  </si>
+  <si>
+    <t>刁现芬; 陈思平; 吴佩娜; 梁长虹; 汪元美</t>
+  </si>
+  <si>
+    <t>浙江大学学报(工学版)</t>
+  </si>
+  <si>
+    <t>2007-06-15</t>
+  </si>
+  <si>
+    <t>应用复合加权偏微分方程求解的磁共振水脂分离成像算法</t>
+  </si>
+  <si>
+    <t>田洪君; 陈思平; 汪天富; 刁现芬; 郑崇勋</t>
+  </si>
+  <si>
+    <t>西安交通大学学报</t>
+  </si>
+  <si>
+    <t>2009-11-10</t>
+  </si>
+  <si>
+    <t>一种有效的低场磁共振系统的水脂分离成像方法</t>
+  </si>
+  <si>
+    <t>田洪君;陈思平;汪天富;盛恒松;刁现芬;郑崇勋</t>
+  </si>
+  <si>
+    <t>2009-06-10</t>
+  </si>
+  <si>
+    <t>基于Memetic优化的智能DNA序列数据压缩算法</t>
+  </si>
+  <si>
+    <t>周家锐; 纪震; 朱泽轩; 陈思平</t>
+  </si>
+  <si>
+    <t>2013-03-15</t>
+  </si>
+  <si>
+    <t>医学超声关键技术研究和进展(一) 超声换能器与超声编码技术</t>
+  </si>
+  <si>
+    <t>彭珏;覃正笛;刁现芬;金程;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>2013-03-30</t>
+  </si>
+  <si>
+    <t>医学超声关键技术研究和进展(二) 超声弹性成像技术、超声图像处理与分析</t>
+  </si>
+  <si>
+    <t>陆敏华;陈昕;倪东;张灵;林浩铭;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>基于DSP的超声图像实时处理平台设计</t>
+  </si>
+  <si>
+    <t>李晓磊; 陈思平; 赵文龙</t>
+  </si>
+  <si>
+    <t>2007-04-30</t>
+  </si>
+  <si>
+    <t>基于ARM+FPGA+多DSP的嵌入式实时图像处理系统</t>
+  </si>
+  <si>
+    <t>任晓波; 赵文龙; 唐盛; 陈思平</t>
+  </si>
+  <si>
+    <t>2011-08-06</t>
+  </si>
+  <si>
+    <t>基于肤色和行为的色情视频检测 优先出版</t>
+  </si>
+  <si>
+    <t>毛安寅; 张灵; 陈思平; 江少锋</t>
+  </si>
+  <si>
+    <t>计算机工程与应用</t>
+  </si>
+  <si>
+    <t>2012-05-21 11:42</t>
   </si>
   <si>
     <t>异常宫颈细胞核的自适应局部分割</t>
@@ -353,6 +752,24 @@
     <t>2013-10-16</t>
   </si>
   <si>
+    <t>一种新型远程医疗服务平台的探索</t>
+  </si>
+  <si>
+    <t>王雄;杨林;陈思平;钟庆生;江光明;施兰</t>
+  </si>
+  <si>
+    <t>2012-08-28</t>
+  </si>
+  <si>
+    <t>超声辐射力弹性成像系统研究及仿体实验</t>
+  </si>
+  <si>
+    <t>陈昕;郭燕荣;王毅;沈圆圆;林浩铭;朱颖;郑翊;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
     <t>产前超声医学图像处理技术综述</t>
   </si>
   <si>
@@ -365,24 +782,6 @@
     <t>2014-08-15</t>
   </si>
   <si>
-    <t>超声弹性成像声辐射力激励模块设计</t>
-  </si>
-  <si>
-    <t>邱明波;李乔亮;陈昕;易万贯;唐浒;张欣茹;陈思平;汪天富</t>
-  </si>
-  <si>
-    <t>2013-09-30</t>
-  </si>
-  <si>
-    <t>基于曲光线跟踪算法的超声成像实时模拟研究</t>
-  </si>
-  <si>
-    <t>倪东; 陈思平; 汪天富</t>
-  </si>
-  <si>
-    <t>2012-07-31</t>
-  </si>
-  <si>
     <t>超声图像中胎儿头围的自动测量</t>
   </si>
   <si>
@@ -392,49 +791,28 @@
     <t>2014-09-30</t>
   </si>
   <si>
-    <t>基于液晶模组的医学诊断仪器人机界面开发与移植</t>
-  </si>
-  <si>
-    <t>张会生;刘昕宇;李乔亮;饶捷;张小飞;王晓轩;林淑梅;尹力;陈思平;汪天富</t>
-  </si>
-  <si>
-    <t>2012-11-30</t>
-  </si>
-  <si>
-    <t>散斑照明宽场荧光层析显微成像技术研究</t>
-  </si>
-  <si>
-    <t>林浩铭;邵永红;屈军乐;尹君;陈思平;牛憨笨</t>
-  </si>
-  <si>
-    <t>物理学报</t>
-  </si>
-  <si>
-    <t>2008-12-15</t>
-  </si>
-  <si>
-    <t>hTERTC27过表达对鼻咽癌C666-1细胞株增殖和凋亡的影响</t>
-  </si>
-  <si>
-    <t>林桂淼;王晓梅;林苏霞;余水红;吴世明;林李家宓;陈思平</t>
-  </si>
-  <si>
-    <t>肿瘤防治研究</t>
-  </si>
-  <si>
-    <t>2013-01-25</t>
-  </si>
-  <si>
-    <t>基于直方图信息和灰度偏移网格的数字减影图像灰度矫正算法</t>
-  </si>
-  <si>
-    <t>储颖; 唐超伦; 纪震; 牟轩沁; 陈思平</t>
-  </si>
-  <si>
-    <t>电子学报</t>
-  </si>
-  <si>
-    <t>2006-01-30</t>
+    <t>基于光流的超声图像肌肉厚度自动测量方法</t>
+  </si>
+  <si>
+    <t>李乔亮;任盼盼;张会生;齐素文;饶捷;张小飞;陈昕;陈思平;汪天富</t>
+  </si>
+  <si>
+    <t>2013-04-20</t>
+  </si>
+  <si>
+    <t>医学超声关键技术研究和进展(三) 超声微泡分子成像与治疗以及声孔效应</t>
+  </si>
+  <si>
+    <t>钱建庭; 沈圆圆; 余皓; 汪天富; 陈思平</t>
+  </si>
+  <si>
+    <t>社区高血压病患者在远程监护下的中医防治</t>
+  </si>
+  <si>
+    <t>王雄;杨林;陈思平;江光明;钟庆生;施兰</t>
+  </si>
+  <si>
+    <t>2012-06-28</t>
   </si>
   <si>
     <t>基于正交频率脉冲编码激励的软组织粘弹性定量测量</t>
@@ -446,40 +824,31 @@
     <t>2014-08-20</t>
   </si>
   <si>
-    <t>基于各向异性扩散的超声图像混合滤波方法</t>
-  </si>
-  <si>
-    <t>张新宇; 陈桓; 汪天富; 王睿; 陈思平</t>
-  </si>
-  <si>
-    <t>2008-10-31</t>
-  </si>
-  <si>
-    <t>基于Gabor小波与Memetic算法的人脸识别方法</t>
-  </si>
-  <si>
-    <t>周家锐; 纪震; 沈琳琳; 朱泽轩; 陈思平</t>
-  </si>
-  <si>
-    <t>2012-04-15</t>
-  </si>
-  <si>
-    <t>一种快速的全自动超声子宫图像分割算法</t>
-  </si>
-  <si>
-    <t>唐盛; 陈思平</t>
-  </si>
-  <si>
-    <t>2007-10-20</t>
-  </si>
-  <si>
-    <t>刚性微管内微泡动力学行为的有限元数值分析</t>
-  </si>
-  <si>
-    <t>邱晓晖;沈圆圆;钱建庭;刁现芬;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>2011-10-25</t>
+    <t>归一化Radon变换和统计测度的超声图像肌束方向自动跟踪</t>
+  </si>
+  <si>
+    <t>李乔亮;李振宇;张会生;张小飞;陈昕;陈思平;汪天富</t>
+  </si>
+  <si>
+    <t>2013-09-16</t>
+  </si>
+  <si>
+    <t>CT图像引导脊柱外科配准方法研究</t>
+  </si>
+  <si>
+    <t>贾富仓; 李修往; 陈思平</t>
+  </si>
+  <si>
+    <t>2007-10-31</t>
+  </si>
+  <si>
+    <t>一种新的三维气管树提取方法</t>
+  </si>
+  <si>
+    <t>程远雄; 胡罢生; 郝立巍; 陈思平</t>
+  </si>
+  <si>
+    <t>2011-07-15</t>
   </si>
   <si>
     <t>基于剪切波频散超声振动技术的大鼠肝纤维化粘弹性测量</t>
@@ -491,124 +860,22 @@
     <t>2014-06-30</t>
   </si>
   <si>
-    <t>社区高血压患者远程监护系统的研究进展</t>
-  </si>
-  <si>
-    <t>王雄;陈思平;江光明;钟庆生;杨林;施兰</t>
-  </si>
-  <si>
-    <t>中国社区医师(医学专业)</t>
-  </si>
-  <si>
-    <t>2011-08-05</t>
-  </si>
-  <si>
-    <t>基于Snake算法的气道内超声序列图像的边界提取</t>
-  </si>
-  <si>
-    <t>2012-01-15</t>
-  </si>
-  <si>
-    <t>基于血管匹配的三维超声与CT图像的配准方法</t>
-  </si>
-  <si>
-    <t>2012-06-25</t>
-  </si>
-  <si>
-    <t>耳蜗长度的无创伤性测量及其横断面的提取</t>
-  </si>
-  <si>
-    <t>2007-02-20</t>
-  </si>
-  <si>
-    <t>表面波软组织黏弹性测量仿真的研究</t>
-  </si>
-  <si>
-    <t>林浩铭; 陈思平; 汪天富</t>
-  </si>
-  <si>
-    <t>2013-05-31</t>
-  </si>
-  <si>
-    <t>一种通用的电路板自动测试系统的设计与实现</t>
-  </si>
-  <si>
-    <t>贾国龙; 陈思平; 赵文龙</t>
-  </si>
-  <si>
-    <t>科技情报开发与经济</t>
-  </si>
-  <si>
-    <t>2009-02-15</t>
-  </si>
-  <si>
-    <t>三维窄带水平集算法在内耳分割中的应用</t>
-  </si>
-  <si>
-    <t>刁现芬; 陈思平; 吴佩娜; 梁长虹; 汪元美</t>
-  </si>
-  <si>
-    <t>浙江大学学报(工学版)</t>
-  </si>
-  <si>
-    <t>2007-06-15</t>
-  </si>
-  <si>
-    <t>应用复合加权偏微分方程求解的磁共振水脂分离成像算法</t>
-  </si>
-  <si>
-    <t>田洪君; 陈思平; 汪天富; 刁现芬; 郑崇勋</t>
-  </si>
-  <si>
-    <t>西安交通大学学报</t>
-  </si>
-  <si>
-    <t>2009-11-10</t>
-  </si>
-  <si>
-    <t>一种有效的低场磁共振系统的水脂分离成像方法</t>
-  </si>
-  <si>
-    <t>田洪君;陈思平;汪天富;盛恒松;刁现芬;郑崇勋</t>
-  </si>
-  <si>
-    <t>2009-06-10</t>
-  </si>
-  <si>
-    <t>基于Memetic优化的智能DNA序列数据压缩算法</t>
-  </si>
-  <si>
-    <t>周家锐; 纪震; 朱泽轩; 陈思平</t>
-  </si>
-  <si>
-    <t>2013-03-15</t>
-  </si>
-  <si>
-    <t>医学超声关键技术研究和进展(一) 超声换能器与超声编码技术</t>
-  </si>
-  <si>
-    <t>彭珏;覃正笛;刁现芬;金程;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>2013-03-30</t>
-  </si>
-  <si>
-    <t>医学超声关键技术研究和进展(二) 超声弹性成像技术、超声图像处理与分析</t>
-  </si>
-  <si>
-    <t>陆敏华;陈昕;倪东;张灵;林浩铭;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>2013-06-30</t>
-  </si>
-  <si>
-    <t>基于DSP的超声图像实时处理平台设计</t>
-  </si>
-  <si>
-    <t>李晓磊; 陈思平; 赵文龙</t>
-  </si>
-  <si>
-    <t>2007-04-30</t>
+    <t>基于流动注射的高速医用电解质分析模块研制</t>
+  </si>
+  <si>
+    <t>张会生;张小飞;刘昕宇;饶捷;钟彩青;李乔亮;齐素文;林淑梅;陈思平;汪天富</t>
+  </si>
+  <si>
+    <t>2013-10-20</t>
+  </si>
+  <si>
+    <t>大鼠肝纤维化分期的流变特性分析</t>
+  </si>
+  <si>
+    <t>朱颖;沈圆圆;陈昕;林浩铭;汪天富;陈思平</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
   </si>
   <si>
     <t>聚焦超声联合微泡开放血脑屏障机制及监测方法的研究进展</t>
@@ -620,25 +887,25 @@
     <t>2016-12-30</t>
   </si>
   <si>
-    <t>基于ARM+FPGA+多DSP的嵌入式实时图像处理系统</t>
-  </si>
-  <si>
-    <t>任晓波; 赵文龙; 唐盛; 陈思平</t>
-  </si>
-  <si>
-    <t>2011-08-06</t>
-  </si>
-  <si>
-    <t>基于肤色和行为的色情视频检测 优先出版</t>
-  </si>
-  <si>
-    <t>毛安寅; 张灵; 陈思平; 江少锋</t>
-  </si>
-  <si>
-    <t>计算机工程与应用</t>
-  </si>
-  <si>
-    <t>2012-05-21 11:42</t>
+    <t>电压监测仪抄表系统的设计</t>
+  </si>
+  <si>
+    <t>杨巧合; 赵文龙; 陈思平</t>
+  </si>
+  <si>
+    <t>机械工程与自动化</t>
+  </si>
+  <si>
+    <t>2007-12-15</t>
+  </si>
+  <si>
+    <t>基于编码的软组织超声粘弹性成像及其在肝纤维化诊断中的应用</t>
+  </si>
+  <si>
+    <t>中国超声医学工程学会第八届超声治疗专委会学术会议、第六届仪器工程开发专委会学术会议、第五届超声生物效应专委会学术会、重庆超声医学工程学会学术会议论文集</t>
+  </si>
+  <si>
+    <t>2013-07-12</t>
   </si>
   <si>
     <t>超声弹性成像编码激励产生声辐射力方法的研究</t>
@@ -653,96 +920,12 @@
     <t>2010-10-01</t>
   </si>
   <si>
-    <t>中国会议</t>
-  </si>
-  <si>
-    <t>一种新型远程医疗服务平台的探索</t>
-  </si>
-  <si>
-    <t>王雄;杨林;陈思平;钟庆生;江光明;施兰</t>
-  </si>
-  <si>
-    <t>深圳中西医结合杂志</t>
-  </si>
-  <si>
-    <t>2012-08-28</t>
-  </si>
-  <si>
-    <t>超声辐射力弹性成像系统研究及仿体实验</t>
-  </si>
-  <si>
-    <t>陈昕;郭燕荣;王毅;沈圆圆;林浩铭;朱颖;郑翊;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>2013-01-31</t>
-  </si>
-  <si>
     <t>频率补偿滤波器用于相位编码超声成像的仿真研究</t>
   </si>
   <si>
     <t>刘卓; 陈思平; 汪天富; 覃正笛; 金程</t>
   </si>
   <si>
-    <t>基于编码的软组织超声粘弹性成像及其在肝纤维化诊断中的应用</t>
-  </si>
-  <si>
-    <t>中国超声医学工程学会第八届超声治疗专委会学术会议、第六届仪器工程开发专委会学术会议、第五届超声生物效应专委会学术会、重庆超声医学工程学会学术会议论文集</t>
-  </si>
-  <si>
-    <t>2013-07-12</t>
-  </si>
-  <si>
-    <t>基于光流的超声图像肌肉厚度自动测量方法</t>
-  </si>
-  <si>
-    <t>李乔亮;任盼盼;张会生;齐素文;饶捷;张小飞;陈昕;陈思平;汪天富</t>
-  </si>
-  <si>
-    <t>2013-04-20</t>
-  </si>
-  <si>
-    <t>医学超声关键技术研究和进展(三) 超声微泡分子成像与治疗以及声孔效应</t>
-  </si>
-  <si>
-    <t>钱建庭; 沈圆圆; 余皓; 汪天富; 陈思平</t>
-  </si>
-  <si>
-    <t>社区高血压病患者在远程监护下的中医防治</t>
-  </si>
-  <si>
-    <t>王雄;杨林;陈思平;江光明;钟庆生;施兰</t>
-  </si>
-  <si>
-    <t>2012-06-28</t>
-  </si>
-  <si>
-    <t>归一化Radon变换和统计测度的超声图像肌束方向自动跟踪</t>
-  </si>
-  <si>
-    <t>李乔亮;李振宇;张会生;张小飞;陈昕;陈思平;汪天富</t>
-  </si>
-  <si>
-    <t>2013-09-16</t>
-  </si>
-  <si>
-    <t>CT图像引导脊柱外科配准方法研究</t>
-  </si>
-  <si>
-    <t>贾富仓; 李修往; 陈思平</t>
-  </si>
-  <si>
-    <t>2007-10-31</t>
-  </si>
-  <si>
-    <t>一种新的三维气管树提取方法</t>
-  </si>
-  <si>
-    <t>程远雄; 胡罢生; 郝立巍; 陈思平</t>
-  </si>
-  <si>
-    <t>2011-07-15</t>
-  </si>
-  <si>
     <t>第二心音发生时间与主动脉血压变化的关系</t>
   </si>
   <si>
@@ -755,36 +938,6 @@
     <t>2007-04-01</t>
   </si>
   <si>
-    <t>基于流动注射的高速医用电解质分析模块研制</t>
-  </si>
-  <si>
-    <t>张会生;张小飞;刘昕宇;饶捷;钟彩青;李乔亮;齐素文;林淑梅;陈思平;汪天富</t>
-  </si>
-  <si>
-    <t>2013-10-20</t>
-  </si>
-  <si>
-    <t>大鼠肝纤维化分期的流变特性分析</t>
-  </si>
-  <si>
-    <t>朱颖;沈圆圆;陈昕;林浩铭;汪天富;陈思平</t>
-  </si>
-  <si>
-    <t>2013-03-31</t>
-  </si>
-  <si>
-    <t>电压监测仪抄表系统的设计</t>
-  </si>
-  <si>
-    <t>杨巧合; 赵文龙; 陈思平</t>
-  </si>
-  <si>
-    <t>机械工程与自动化</t>
-  </si>
-  <si>
-    <t>2007-12-15</t>
-  </si>
-  <si>
     <t>基于实时三维超声成像的偏心性二尖瓣反流定量评价</t>
   </si>
   <si>
@@ -869,16 +1022,25 @@
     <t>2013-08-15</t>
   </si>
   <si>
-    <t>基于超声图像的运动肌肉疲劳研究</t>
-  </si>
-  <si>
-    <t>温慧莹;陈昕;王君;钟昇;易万贯;侯莉娟</t>
-  </si>
-  <si>
-    <t>北京师范大学学报(自然科学版)</t>
-  </si>
-  <si>
-    <t>2015-10-15</t>
+    <t>融合实时超声影像的多模态肌肉运动特性研究</t>
+  </si>
+  <si>
+    <t>李乔亮;易万贯;陈昕;郭燕荣;郑永平;郭静宜;张治国</t>
+  </si>
+  <si>
+    <t>2012-08-20</t>
+  </si>
+  <si>
+    <t>基于联合隐马尔科夫模型的SAR图像去噪方法</t>
+  </si>
+  <si>
+    <t>倪东; 李乔亮; 陈昕</t>
+  </si>
+  <si>
+    <t>遥测遥控</t>
+  </si>
+  <si>
+    <t>2012-09-15</t>
   </si>
   <si>
     <t>多通道运动信号采集系统及实验结果</t>
@@ -887,6 +1049,15 @@
     <t>钟昇;易万贯;邓可;詹凯;温慧莹;陈昕</t>
   </si>
   <si>
+    <t>无线超声多普勒胎心检测系统的研发</t>
+  </si>
+  <si>
+    <t>杨钧鹏; 詹凯; 张旭东; 陈昕</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
     <t>编码激励超声多普勒系统分辨率性能分析</t>
   </si>
   <si>
@@ -899,22 +1070,10 @@
     <t>2017-03-15</t>
   </si>
   <si>
-    <t>融合实时超声影像的多模态肌肉运动特性研究</t>
-  </si>
-  <si>
-    <t>李乔亮;易万贯;陈昕;郭燕荣;郑永平;郭静宜;张治国</t>
-  </si>
-  <si>
-    <t>2012-08-20</t>
-  </si>
-  <si>
-    <t>无线超声多普勒胎心检测系统的研发</t>
-  </si>
-  <si>
-    <t>杨钧鹏; 詹凯; 张旭东; 陈昕</t>
-  </si>
-  <si>
-    <t>2016-11-30</t>
+    <t>超声无损检测中基于分段长码技术的多重回波检测</t>
+  </si>
+  <si>
+    <t>詹凯; 陈昕; 李杰; 覃正笛</t>
   </si>
   <si>
     <t>抗痉挛治疗前后脑卒中患者超声肌肉结构参数的比较 优先出版</t>
@@ -929,22 +1088,10 @@
     <t>2014-07-25 10:06</t>
   </si>
   <si>
-    <t>基于联合隐马尔科夫模型的SAR图像去噪方法</t>
-  </si>
-  <si>
-    <t>倪东; 李乔亮; 陈昕</t>
-  </si>
-  <si>
-    <t>遥测遥控</t>
-  </si>
-  <si>
-    <t>2012-09-15</t>
-  </si>
-  <si>
-    <t>超声无损检测中基于分段长码技术的多重回波检测</t>
-  </si>
-  <si>
-    <t>詹凯; 陈昕; 李杰; 覃正笛</t>
+    <t>多参数可调低强度脉冲超声治疗系统的研制</t>
+  </si>
+  <si>
+    <t>牛洋洋; 马继鹏; 钟昇; 詹凯; 陈昕</t>
   </si>
   <si>
     <t>剪切波速对比磁共振弥散成像评价慢性乙型肝炎肝纤维化程度 优先出版</t>
@@ -992,12 +1139,6 @@
     <t>陈昕; 郭燕荣</t>
   </si>
   <si>
-    <t>多参数可调低强度脉冲超声治疗系统的研制</t>
-  </si>
-  <si>
-    <t>牛洋洋; 马继鹏; 钟昇; 詹凯; 陈昕</t>
-  </si>
-  <si>
     <t>融合超声影像动态评估中风偏瘫患者内侧腓肠肌状态</t>
   </si>
   <si>
@@ -1031,6 +1172,12 @@
     <t>2013-06-15</t>
   </si>
   <si>
+    <t>基于6S理念的生物医学传感器实验室管理探索</t>
+  </si>
+  <si>
+    <t>潘晓苹; 汪天富; 张新宇; 张旭</t>
+  </si>
+  <si>
     <t>结构MRI对青少年癫脑皮质厚度的研究进展 优先出版</t>
   </si>
   <si>
@@ -1043,19 +1190,22 @@
     <t>2016-03-22 10:47</t>
   </si>
   <si>
-    <t>医学超声评价胎盘功能研究进展</t>
-  </si>
-  <si>
-    <t>李欣遥; 姚远; 李胜利; 倪东; 汪天富</t>
-  </si>
-  <si>
-    <t>2015-08-25</t>
-  </si>
-  <si>
-    <t>基于6S理念的生物医学传感器实验室管理探索</t>
-  </si>
-  <si>
-    <t>潘晓苹; 汪天富; 张新宇; 张旭</t>
+    <t>基于对称区域生长算法的超声医学图像分割方法</t>
+  </si>
+  <si>
+    <t>张建;汪天富;李德玉;林江莉;唐红;饶莉</t>
+  </si>
+  <si>
+    <t>2007-06-25</t>
+  </si>
+  <si>
+    <t>基于B超图像多重分形谱的脂肪肝严重程度识别</t>
+  </si>
+  <si>
+    <t>张建炜; 汪天富; 殷杰; 查晓霞; 罗燕</t>
+  </si>
+  <si>
+    <t>2009-07-20</t>
   </si>
   <si>
     <t>恶性肿瘤动态对比增强磁共振成像计算机辅助诊断研究进展</t>
@@ -1067,6 +1217,15 @@
     <t>2016-08-25</t>
   </si>
   <si>
+    <t>基于精确直方图规格化的医学超声图像增强</t>
+  </si>
+  <si>
+    <t>李华美; 汪天富; 林江莉; 李德玉</t>
+  </si>
+  <si>
+    <t>2008-02-20</t>
+  </si>
+  <si>
     <t>乳腺X线成像系统自动曝光控制研究进展</t>
   </si>
   <si>
@@ -1076,31 +1235,13 @@
     <t>2014-12-25</t>
   </si>
   <si>
-    <t>基于对称区域生长算法的超声医学图像分割方法</t>
-  </si>
-  <si>
-    <t>张建;汪天富;李德玉;林江莉;唐红;饶莉</t>
-  </si>
-  <si>
-    <t>2007-06-25</t>
-  </si>
-  <si>
-    <t>基于B超图像多重分形谱的脂肪肝严重程度识别</t>
-  </si>
-  <si>
-    <t>张建炜; 汪天富; 殷杰; 查晓霞; 罗燕</t>
-  </si>
-  <si>
-    <t>2009-07-20</t>
-  </si>
-  <si>
-    <t>基于精确直方图规格化的医学超声图像增强</t>
-  </si>
-  <si>
-    <t>李华美; 汪天富; 林江莉; 李德玉</t>
-  </si>
-  <si>
-    <t>2008-02-20</t>
+    <t>基于改进Snake模型的超声乳腺肿瘤轮廓提取</t>
+  </si>
+  <si>
+    <t>张新宇; 刁现芬; 彭韵; 汪天富</t>
+  </si>
+  <si>
+    <t>微计算机信息</t>
   </si>
   <si>
     <t>新型医学信号处理实验平台的设计与实现</t>
@@ -1115,24 +1256,6 @@
     <t>2017-02-28</t>
   </si>
   <si>
-    <t>基于先验概率和统计形状的前列腺超声图像自动分割方法</t>
-  </si>
-  <si>
-    <t>黄建波; 倪东; 汪天富</t>
-  </si>
-  <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>基于改进Snake模型的超声乳腺肿瘤轮廓提取</t>
-  </si>
-  <si>
-    <t>张新宇; 刁现芬; 彭韵; 汪天富</t>
-  </si>
-  <si>
-    <t>微计算机信息</t>
-  </si>
-  <si>
     <t>超声医学图像滤波和对比度增强新方法</t>
   </si>
   <si>
@@ -1169,6 +1292,15 @@
     <t>2016-10-15</t>
   </si>
   <si>
+    <t>经颅微电流刺激技术及临床研究现状</t>
+  </si>
+  <si>
+    <t>但果; 李志坚; 丁惠君; 张佳泳; 刘子琛</t>
+  </si>
+  <si>
+    <t>中国康复医学杂志</t>
+  </si>
+  <si>
     <t>电声门图仪检测技术的研究进展 优先出版</t>
   </si>
   <si>
@@ -1181,15 +1313,6 @@
     <t>2013-02-26 10:40</t>
   </si>
   <si>
-    <t>经颅微电流刺激技术及临床研究现状</t>
-  </si>
-  <si>
-    <t>但果; 李志坚; 丁惠君; 张佳泳; 刘子琛</t>
-  </si>
-  <si>
-    <t>中国康复医学杂志</t>
-  </si>
-  <si>
     <t>TDBU教学模式在生物医学工程专业实验教学中的应用</t>
   </si>
   <si>
@@ -1199,27 +1322,6 @@
     <t>2014-07-20</t>
   </si>
   <si>
-    <t>不同物理场处理对磷脂分散体系的影响 优先出版</t>
-  </si>
-  <si>
-    <t>但果; 刘志伟; 贾晓; 曾新安</t>
-  </si>
-  <si>
-    <t>高压物理学报</t>
-  </si>
-  <si>
-    <t>2015-09-21 17:10</t>
-  </si>
-  <si>
-    <t>血凝素蛋白及抗体相互作用的太赫兹光谱主成分分析 优先出版</t>
-  </si>
-  <si>
-    <t>孙怡雯; 钟俊兰; 左剑; 张存林; 但果</t>
-  </si>
-  <si>
-    <t>2015-06-29 14:28</t>
-  </si>
-  <si>
     <t>病人监测的呼吸测量方法及其有效性的评价</t>
   </si>
   <si>
@@ -1262,6 +1364,12 @@
     <t>2016-02-25</t>
   </si>
   <si>
+    <t>医用二氧化碳监测方法与应用研究进展</t>
+  </si>
+  <si>
+    <t>刘春生;朱彩兵;宋艳涛;魏兰兰;叶继伦;张旭</t>
+  </si>
+  <si>
     <t>微型睡眠监护评价系统的研究</t>
   </si>
   <si>
@@ -1271,10 +1379,13 @@
     <t>2013-11-30</t>
   </si>
   <si>
-    <t>医用二氧化碳监测方法与应用研究进展</t>
-  </si>
-  <si>
-    <t>刘春生;朱彩兵;宋艳涛;魏兰兰;叶继伦;张旭</t>
+    <t>呼吸功能检测方法研究</t>
+  </si>
+  <si>
+    <t>王镭;刘春生;张芮恺;陈熹;李志坚;李振宇;叶继伦;张旭</t>
+  </si>
+  <si>
+    <t>2012-09-30</t>
   </si>
   <si>
     <t>基于指-趾脉搏波传导速度的无创动脉硬化检测系统设计</t>
@@ -1286,30 +1397,21 @@
     <t>2016-07-25</t>
   </si>
   <si>
-    <t>麻醉过程中脑电信号处理方法研究</t>
-  </si>
-  <si>
-    <t>顾家军; 黄燕; 叶继伦; 王开隽; 张梅梅</t>
-  </si>
-  <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
-    <t>呼吸功能检测方法研究</t>
-  </si>
-  <si>
-    <t>王镭;刘春生;张芮恺;陈熹;李志坚;李振宇;叶继伦;张旭</t>
-  </si>
-  <si>
-    <t>2012-09-30</t>
-  </si>
-  <si>
     <t>高通滤波电路对心电波形ST段精确测量的影响研究</t>
   </si>
   <si>
     <t>宋艳涛;朱彩兵;魏兰兰;王凡;叶继伦;张旭;黄晓东</t>
   </si>
   <si>
+    <t>激光衍射粒度分析的研究</t>
+  </si>
+  <si>
+    <t>张会生; 高敦岳</t>
+  </si>
+  <si>
+    <t>1995-02-15</t>
+  </si>
+  <si>
     <t>基于77E58的高速行式热敏打印机控制板的研制</t>
   </si>
   <si>
@@ -1367,6 +1469,48 @@
     <t>发光学报</t>
   </si>
   <si>
+    <t>MI-921A型全自动临床电解质分析仪的研制</t>
+  </si>
+  <si>
+    <t>1997-01-05</t>
+  </si>
+  <si>
+    <t>智能化钾、钠、氯、钙、pH多参数电解质分析仪</t>
+  </si>
+  <si>
+    <t>化学传感器</t>
+  </si>
+  <si>
+    <t>1993-10-01</t>
+  </si>
+  <si>
+    <t>电极法临床电解质分析仪进样流程的改进</t>
+  </si>
+  <si>
+    <t>张会生; 刘心亮</t>
+  </si>
+  <si>
+    <t>分析测试学报</t>
+  </si>
+  <si>
+    <t>1997-09-25</t>
+  </si>
+  <si>
+    <t>电极法临床电解质分析仪流路液体残留的影响及消除</t>
+  </si>
+  <si>
+    <t>1996-05-15</t>
+  </si>
+  <si>
+    <t>MI─921型临床电解质分析仪的研制及应用</t>
+  </si>
+  <si>
+    <t>中国仪器仪表</t>
+  </si>
+  <si>
+    <t>1996-08-27</t>
+  </si>
+  <si>
     <t>面向普适计算的智能终端系统研究</t>
   </si>
   <si>
@@ -1418,9 +1562,6 @@
     <t>许欣宜; 杜冀晖; 张会生</t>
   </si>
   <si>
-    <t>国际检验医学杂志</t>
-  </si>
-  <si>
     <t>基于宽带检测放疗X-光光声效应仿体实验</t>
   </si>
   <si>
@@ -1430,36 +1571,6 @@
     <t>2016-09-25</t>
   </si>
   <si>
-    <t>利用CBIA与WSN构建的植物叶片分类系统 优先出版</t>
-  </si>
-  <si>
-    <t>李晨;姚玮;韩忠伟;高一鸿;Florian Schmidt;蒋涛;丁惠君;王振宇;申旻旻</t>
-  </si>
-  <si>
-    <t>计算机应用研究</t>
-  </si>
-  <si>
-    <t>2015-05-07 10:52</t>
-  </si>
-  <si>
-    <t>低频超声联合微泡治疗阿尔茨海默症的研究进展</t>
-  </si>
-  <si>
-    <t>陈高舒; 郭瑾璇; 杨细飞; 应明; 沈圆圆</t>
-  </si>
-  <si>
-    <t>基于高频超声的小鼠海马区成像的研究</t>
-  </si>
-  <si>
-    <t>谢敏; 陆敏华; 陶子; 庞春颖</t>
-  </si>
-  <si>
-    <t>长春理工大学学报(自然科学版)</t>
-  </si>
-  <si>
-    <t>2015-04-15</t>
-  </si>
-  <si>
     <t>超声关节内窥镜的声信号处理方法研究</t>
   </si>
   <si>
@@ -1505,18 +1616,6 @@
     <t>2008-02-15</t>
   </si>
   <si>
-    <t>HCMV感染的标志性蛋白研究进展</t>
-  </si>
-  <si>
-    <t>李仲航; 谢妮; 齐素文</t>
-  </si>
-  <si>
-    <t>热带医学杂志</t>
-  </si>
-  <si>
-    <t>2015-04-28</t>
-  </si>
-  <si>
     <t>联合检测HE4、CA125和CYFRA21-1在卵巢癌诊断中的应用 优先出版</t>
   </si>
   <si>
@@ -1529,28 +1628,10 @@
     <t>2014-10-29 17:39</t>
   </si>
   <si>
-    <t>基于量子点荧光标记技术检测SCCa方法的研究</t>
-  </si>
-  <si>
-    <t>田峰; 齐素文</t>
-  </si>
-  <si>
-    <t>激光杂志</t>
-  </si>
-  <si>
-    <t>2015-04-25</t>
-  </si>
-  <si>
-    <t>基于磁颗粒化学发光免疫分析方法检测鳞状细胞癌抗原</t>
-  </si>
-  <si>
-    <t>2015-07-15</t>
-  </si>
-  <si>
-    <t>两种检测方法测定总胆红素的比较</t>
-  </si>
-  <si>
-    <t>2015-05-30</t>
+    <t>基于行业标准对BS-200全自动生化分析仪的性能评估</t>
+  </si>
+  <si>
+    <t>甘翠萍; 赖思霞; 姚佩南; 齐素文</t>
   </si>
   <si>
     <t>人类巨细胞病毒感染的特异性血清蛋白差异表达</t>
@@ -1562,12 +1643,6 @@
     <t>2016-03-28</t>
   </si>
   <si>
-    <t>基于行业标准对BS-200全自动生化分析仪的性能评估</t>
-  </si>
-  <si>
-    <t>甘翠萍; 赖思霞; 姚佩南; 齐素文</t>
-  </si>
-  <si>
     <t>基于核磁-超声融合的前列腺靶向穿刺系统</t>
   </si>
   <si>
@@ -1577,27 +1652,51 @@
     <t>2016-03-30</t>
   </si>
   <si>
+    <t>基于T-Snake模型的超声左心室心肌分割方法的研究</t>
+  </si>
+  <si>
+    <t>袁艳红; 倪东</t>
+  </si>
+  <si>
+    <t>2013-03-25</t>
+  </si>
+  <si>
     <t>胎儿颜面部三维超声基准标准切面自动校对系统的研究</t>
   </si>
   <si>
     <t>刘盛锋; 卓柳; 倪东</t>
   </si>
   <si>
-    <t>基于T-Snake模型的超声左心室心肌分割方法的研究</t>
-  </si>
-  <si>
-    <t>袁艳红; 倪东</t>
-  </si>
-  <si>
-    <t>2013-03-25</t>
-  </si>
-  <si>
     <t>能谱CT在肝癌中的研究进展</t>
   </si>
   <si>
     <t>方天琦;陈奕宇;宾果;朱姝华;陈汉威;陈诗慧;邓炜;黄炳升</t>
   </si>
   <si>
+    <t>中华硬蜱叮咬蜱抗原免疫接种宿主后中肠组织化学的动态观察</t>
+  </si>
+  <si>
+    <t>刘志刚; 叶炳辉; 朱清仙; 徐敏</t>
+  </si>
+  <si>
+    <t>畜牧兽医学报</t>
+  </si>
+  <si>
+    <t>2004-07-23</t>
+  </si>
+  <si>
+    <t>二棘血蜱叮咬中华硬蜱纯化抗原免疫接种宿主后的交叉免疫反应</t>
+  </si>
+  <si>
+    <t>刘志刚; 叶炳辉; 崔晓民; 徐敏</t>
+  </si>
+  <si>
+    <t>中国生物防治</t>
+  </si>
+  <si>
+    <t>2004-05-08</t>
+  </si>
+  <si>
     <t>自发性结肠穿孔临床分析(附13例报告)</t>
   </si>
   <si>
@@ -1610,54 +1709,6 @@
     <t>2014-01-26</t>
   </si>
   <si>
-    <t>中华硬蜱叮咬蜱抗原免疫接种宿主后中肠组织化学的动态观察</t>
-  </si>
-  <si>
-    <t>刘志刚; 叶炳辉; 朱清仙; 徐敏</t>
-  </si>
-  <si>
-    <t>畜牧兽医学报</t>
-  </si>
-  <si>
-    <t>2004-07-23</t>
-  </si>
-  <si>
-    <t>二棘血蜱叮咬中华硬蜱纯化抗原免疫接种宿主后的交叉免疫反应</t>
-  </si>
-  <si>
-    <t>刘志刚; 叶炳辉; 崔晓民; 徐敏</t>
-  </si>
-  <si>
-    <t>中国生物防治</t>
-  </si>
-  <si>
-    <t>2004-05-08</t>
-  </si>
-  <si>
-    <t>Ⅲ度以上会阴撕裂伤修补的临床研究</t>
-  </si>
-  <si>
-    <t>陈小岚;郑潇潇;田萍;刘妮妮;何琼;孙军;王满;汪长浩;马翔;杨峰;徐敏</t>
-  </si>
-  <si>
-    <t>第十八届中国中西医结合学会大肠肛门病专业委员会学术会议暨甘肃省第五届结直肠肛门外科学术年会论文汇编</t>
-  </si>
-  <si>
-    <t>2015-08-28</t>
-  </si>
-  <si>
-    <t>基于序统计量相关分析的静息态大脑语言功能连接网络的时间可靠性及偏侧化研究 优先出版</t>
-  </si>
-  <si>
-    <t>师雪姣; 常春起; 胡南; 孙兵</t>
-  </si>
-  <si>
-    <t>中国医学影像学杂志</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:50</t>
-  </si>
-  <si>
     <t>基于伪随机序列调制彩色视觉刺激的脑机接口</t>
   </si>
   <si>
@@ -1700,25 +1751,25 @@
     <t>2016-09-15</t>
   </si>
   <si>
+    <t>一种12位50 MSPS流水线逐次逼近A/D转换器</t>
+  </si>
+  <si>
+    <t>董磊;涂志娣;王百鸣;阳广;薛超杰;刘浩瑞</t>
+  </si>
+  <si>
+    <t>微电子学</t>
+  </si>
+  <si>
+    <t>2010-04-20</t>
+  </si>
+  <si>
     <t>高压缩V-LRU算法的研究与实现</t>
   </si>
   <si>
     <t>董磊; 岑俊龙; 涂志娣; 李可; 梁松海</t>
   </si>
   <si>
-    <t>微电子学</t>
-  </si>
-  <si>
     <t>2011-10-20</t>
-  </si>
-  <si>
-    <t>一种12位50 MSPS流水线逐次逼近A/D转换器</t>
-  </si>
-  <si>
-    <t>董磊;涂志娣;王百鸣;阳广;薛超杰;刘浩瑞</t>
-  </si>
-  <si>
-    <t>2010-04-20</t>
   </si>
   <si>
     <t>一种位复用近似LRU替换算法的分析与研究</t>
@@ -2072,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2170,13 +2221,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -2184,16 +2235,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -2201,16 +2252,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -2218,16 +2269,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -2235,16 +2286,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -2252,16 +2303,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -2269,16 +2320,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -2286,16 +2337,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -2303,16 +2354,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -2320,16 +2371,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -2337,16 +2388,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -2354,16 +2405,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -2371,16 +2422,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -2388,16 +2439,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -2405,33 +2456,33 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -2439,16 +2490,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -2456,16 +2507,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -2473,16 +2524,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -2490,16 +2541,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2507,16 +2558,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -2524,16 +2575,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2541,16 +2592,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -2558,16 +2609,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -2575,16 +2626,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -2592,16 +2643,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -2609,16 +2660,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -2626,16 +2677,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -2643,16 +2694,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -2660,16 +2711,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -2677,16 +2728,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -2694,16 +2745,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -2711,16 +2762,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -2728,16 +2779,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -2745,16 +2796,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -2762,16 +2813,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -2779,16 +2830,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -2796,16 +2847,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -2813,16 +2864,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -2830,16 +2881,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -2847,16 +2898,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -2864,16 +2915,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -2881,16 +2932,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -2898,16 +2949,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -2915,16 +2966,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -2932,16 +2983,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -2949,16 +3000,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -2966,16 +3017,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -2983,16 +3034,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -3000,16 +3051,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -3017,16 +3068,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -3034,16 +3085,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -3051,16 +3102,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -3068,16 +3119,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -3085,16 +3136,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -3102,16 +3153,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -3119,33 +3170,33 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -3153,16 +3204,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
         <v>217</v>
       </c>
-      <c r="B64" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -3170,50 +3221,50 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -3221,16 +3272,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -3238,16 +3289,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -3255,16 +3306,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -3272,16 +3323,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -3289,16 +3340,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -3306,33 +3357,33 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -3340,16 +3391,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -3357,16 +3408,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -3374,118 +3425,118 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -3493,13 +3544,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C84" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
         <v>283</v>
@@ -3516,10 +3567,10 @@
         <v>285</v>
       </c>
       <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
         <v>286</v>
-      </c>
-      <c r="D85" t="s">
-        <v>287</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -3527,16 +3578,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" t="s">
         <v>288</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" t="s">
         <v>289</v>
-      </c>
-      <c r="C86" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" t="s">
-        <v>124</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -3564,16 +3615,16 @@
         <v>294</v>
       </c>
       <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
         <v>295</v>
-      </c>
-      <c r="C88" t="s">
-        <v>33</v>
       </c>
       <c r="D88" t="s">
         <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3584,132 +3635,132 @@
         <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" t="s">
         <v>300</v>
       </c>
-      <c r="B90" t="s">
-        <v>301</v>
-      </c>
-      <c r="C90" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" t="s">
-        <v>303</v>
-      </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" t="s">
         <v>304</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>305</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>306</v>
       </c>
-      <c r="D91" t="s">
-        <v>307</v>
-      </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s">
         <v>308</v>
       </c>
-      <c r="B92" t="s">
-        <v>309</v>
-      </c>
       <c r="C92" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
+        <v>309</v>
+      </c>
+      <c r="B93" t="s">
         <v>310</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>311</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>312</v>
       </c>
-      <c r="D93" t="s">
-        <v>313</v>
-      </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" t="s">
         <v>314</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>315</v>
       </c>
-      <c r="C94" t="s">
-        <v>316</v>
-      </c>
-      <c r="D94" t="s">
-        <v>317</v>
-      </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" t="s">
         <v>318</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>319</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>320</v>
-      </c>
-      <c r="D95" t="s">
-        <v>321</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" t="s">
         <v>322</v>
       </c>
-      <c r="B96" t="s">
-        <v>319</v>
-      </c>
       <c r="C96" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3720,27 +3771,27 @@
         <v>324</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="E97" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -3748,16 +3799,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="D99" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -3765,16 +3816,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -3782,16 +3833,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D101" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -3799,16 +3850,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -3816,16 +3867,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -3833,16 +3884,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -3850,16 +3901,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="D105" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -3867,16 +3918,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -3884,16 +3935,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="D107" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -3901,16 +3952,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B108" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="D108" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -3918,16 +3969,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -3935,16 +3986,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D110" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -3952,16 +4003,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>106</v>
+        <v>369</v>
       </c>
       <c r="D111" t="s">
-        <v>368</v>
+        <v>194</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -3969,33 +4020,33 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C112" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B113" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -4003,16 +4054,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -4020,16 +4071,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="D115" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -4037,16 +4088,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B116" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -4054,16 +4105,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B117" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -4071,16 +4122,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B118" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>393</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -4088,16 +4139,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="D119" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -4105,16 +4156,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C120" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -4122,16 +4173,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>365</v>
       </c>
       <c r="D121" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -4139,16 +4190,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -4156,16 +4207,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -4173,16 +4224,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -4190,16 +4241,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B125" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -4207,16 +4258,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -4224,16 +4275,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -4241,16 +4292,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C128" t="s">
-        <v>87</v>
+        <v>423</v>
       </c>
       <c r="D128" t="s">
-        <v>307</v>
+        <v>424</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -4258,16 +4309,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C129" t="s">
-        <v>87</v>
+        <v>427</v>
       </c>
       <c r="D129" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -4275,16 +4326,16 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B130" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="D130" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -4292,16 +4343,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D131" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
@@ -4309,16 +4360,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B132" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
@@ -4326,16 +4377,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B133" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C133" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>433</v>
+        <v>257</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
@@ -4343,16 +4394,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B134" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C134" t="s">
-        <v>436</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
@@ -4360,16 +4411,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C135" t="s">
-        <v>440</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -4377,16 +4428,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B136" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="D136" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
@@ -4394,16 +4445,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B137" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C137" t="s">
-        <v>440</v>
+        <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -4411,16 +4462,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B138" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C138" t="s">
-        <v>449</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>283</v>
+        <v>453</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -4428,16 +4479,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B139" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C139" t="s">
-        <v>452</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
@@ -4445,16 +4496,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B140" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="D140" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -4462,16 +4513,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C141" t="s">
-        <v>459</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>460</v>
+        <v>143</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
@@ -4479,13 +4530,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B142" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C142" t="s">
-        <v>463</v>
+        <v>329</v>
       </c>
       <c r="D142" t="s">
         <v>464</v>
@@ -4502,10 +4553,10 @@
         <v>466</v>
       </c>
       <c r="C143" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" t="s">
         <v>467</v>
-      </c>
-      <c r="D143" t="s">
-        <v>118</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
@@ -4519,10 +4570,10 @@
         <v>469</v>
       </c>
       <c r="C144" t="s">
-        <v>87</v>
+        <v>470</v>
       </c>
       <c r="D144" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -4530,16 +4581,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C145" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D145" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
@@ -4547,16 +4598,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B146" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>470</v>
       </c>
       <c r="D146" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -4564,13 +4615,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
+        <v>479</v>
+      </c>
+      <c r="B147" t="s">
         <v>477</v>
       </c>
-      <c r="B147" t="s">
-        <v>478</v>
-      </c>
       <c r="C147" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D147" t="s">
         <v>480</v>
@@ -4587,47 +4638,47 @@
         <v>482</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>483</v>
       </c>
       <c r="D148" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="E148" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B149" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
         <v>485</v>
       </c>
-      <c r="D149" t="s">
-        <v>486</v>
-      </c>
       <c r="E149" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
+        <v>486</v>
+      </c>
+      <c r="B150" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" t="s">
         <v>487</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>488</v>
       </c>
-      <c r="C150" t="s">
-        <v>223</v>
-      </c>
-      <c r="D150" t="s">
-        <v>224</v>
-      </c>
       <c r="E150" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4652,13 +4703,13 @@
         <v>493</v>
       </c>
       <c r="B152" t="s">
+        <v>490</v>
+      </c>
+      <c r="C152" t="s">
+        <v>487</v>
+      </c>
+      <c r="D152" t="s">
         <v>494</v>
-      </c>
-      <c r="C152" t="s">
-        <v>130</v>
-      </c>
-      <c r="D152" t="s">
-        <v>495</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -4666,16 +4717,16 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
+        <v>495</v>
+      </c>
+      <c r="B153" t="s">
+        <v>466</v>
+      </c>
+      <c r="C153" t="s">
         <v>496</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>497</v>
-      </c>
-      <c r="C153" t="s">
-        <v>498</v>
-      </c>
-      <c r="D153" t="s">
-        <v>499</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -4683,16 +4734,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
+        <v>498</v>
+      </c>
+      <c r="B154" t="s">
+        <v>499</v>
+      </c>
+      <c r="C154" t="s">
         <v>500</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" t="s">
         <v>501</v>
-      </c>
-      <c r="C154" t="s">
-        <v>502</v>
-      </c>
-      <c r="D154" t="s">
-        <v>503</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
@@ -4700,16 +4751,16 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
+        <v>502</v>
+      </c>
+      <c r="B155" t="s">
+        <v>503</v>
+      </c>
+      <c r="C155" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" t="s">
         <v>504</v>
-      </c>
-      <c r="B155" t="s">
-        <v>505</v>
-      </c>
-      <c r="C155" t="s">
-        <v>506</v>
-      </c>
-      <c r="D155" t="s">
-        <v>507</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -4717,16 +4768,16 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
+        <v>505</v>
+      </c>
+      <c r="B156" t="s">
+        <v>506</v>
+      </c>
+      <c r="C156" t="s">
+        <v>507</v>
+      </c>
+      <c r="D156" t="s">
         <v>508</v>
-      </c>
-      <c r="B156" t="s">
-        <v>505</v>
-      </c>
-      <c r="C156" t="s">
-        <v>467</v>
-      </c>
-      <c r="D156" t="s">
-        <v>509</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
@@ -4734,16 +4785,16 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
+        <v>509</v>
+      </c>
+      <c r="B157" t="s">
         <v>510</v>
       </c>
-      <c r="B157" t="s">
-        <v>505</v>
-      </c>
       <c r="C157" t="s">
-        <v>215</v>
+        <v>511</v>
       </c>
       <c r="D157" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
@@ -4751,16 +4802,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C158" t="s">
-        <v>498</v>
+        <v>68</v>
       </c>
       <c r="D158" t="s">
-        <v>514</v>
+        <v>143</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -4774,10 +4825,10 @@
         <v>516</v>
       </c>
       <c r="C159" t="s">
-        <v>467</v>
+        <v>186</v>
       </c>
       <c r="D159" t="s">
-        <v>333</v>
+        <v>517</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -4785,19 +4836,19 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B160" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="D160" t="s">
-        <v>519</v>
+        <v>296</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4808,44 +4859,44 @@
         <v>521</v>
       </c>
       <c r="C161" t="s">
-        <v>106</v>
+        <v>522</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>523</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B162" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C162" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="D162" t="s">
-        <v>524</v>
+        <v>296</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B163" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>340</v>
+        <v>528</v>
       </c>
       <c r="D163" t="s">
-        <v>293</v>
+        <v>529</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
@@ -4853,16 +4904,16 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B164" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C164" t="s">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="D164" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
@@ -4870,16 +4921,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B165" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C165" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D165" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
@@ -4887,16 +4938,16 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B166" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C166" t="s">
-        <v>537</v>
+        <v>68</v>
       </c>
       <c r="D166" t="s">
-        <v>538</v>
+        <v>380</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
@@ -4910,27 +4961,27 @@
         <v>540</v>
       </c>
       <c r="C167" t="s">
+        <v>61</v>
+      </c>
+      <c r="D167" t="s">
         <v>541</v>
       </c>
-      <c r="D167" t="s">
-        <v>542</v>
-      </c>
       <c r="E167" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
+        <v>542</v>
+      </c>
+      <c r="B168" t="s">
         <v>543</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>84</v>
+      </c>
+      <c r="D168" t="s">
         <v>544</v>
-      </c>
-      <c r="C168" t="s">
-        <v>545</v>
-      </c>
-      <c r="D168" t="s">
-        <v>546</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -4938,16 +4989,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
+        <v>545</v>
+      </c>
+      <c r="B169" t="s">
+        <v>546</v>
+      </c>
+      <c r="C169" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" t="s">
         <v>547</v>
-      </c>
-      <c r="B169" t="s">
-        <v>548</v>
-      </c>
-      <c r="C169" t="s">
-        <v>549</v>
-      </c>
-      <c r="D169" t="s">
-        <v>550</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
@@ -4955,16 +5006,16 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B170" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C170" t="s">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
@@ -4972,16 +5023,16 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B171" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C171" t="s">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="D171" t="s">
-        <v>557</v>
+        <v>350</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
@@ -4989,16 +5040,16 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B172" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C172" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D172" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
@@ -5006,16 +5057,16 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B173" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C173" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D173" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
@@ -5023,16 +5074,16 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B174" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C174" t="s">
+        <v>562</v>
+      </c>
+      <c r="D174" t="s">
         <v>563</v>
-      </c>
-      <c r="D174" t="s">
-        <v>567</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
@@ -5040,16 +5091,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B175" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C175" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D175" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
@@ -5057,18 +5108,120 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
+        <v>568</v>
+      </c>
+      <c r="B176" t="s">
+        <v>569</v>
+      </c>
+      <c r="C176" t="s">
+        <v>570</v>
+      </c>
+      <c r="D176" t="s">
+        <v>196</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
         <v>571</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>572</v>
       </c>
-      <c r="C176" t="s">
-        <v>563</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C177" t="s">
         <v>573</v>
       </c>
-      <c r="E176" t="s">
+      <c r="D177" t="s">
+        <v>574</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>575</v>
+      </c>
+      <c r="B178" t="s">
+        <v>576</v>
+      </c>
+      <c r="C178" t="s">
+        <v>566</v>
+      </c>
+      <c r="D178" t="s">
+        <v>577</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>578</v>
+      </c>
+      <c r="B179" t="s">
+        <v>579</v>
+      </c>
+      <c r="C179" t="s">
+        <v>580</v>
+      </c>
+      <c r="D179" t="s">
+        <v>581</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>582</v>
+      </c>
+      <c r="B180" t="s">
+        <v>583</v>
+      </c>
+      <c r="C180" t="s">
+        <v>580</v>
+      </c>
+      <c r="D180" t="s">
+        <v>584</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>585</v>
+      </c>
+      <c r="B181" t="s">
+        <v>586</v>
+      </c>
+      <c r="C181" t="s">
+        <v>580</v>
+      </c>
+      <c r="D181" t="s">
+        <v>587</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>588</v>
+      </c>
+      <c r="B182" t="s">
+        <v>589</v>
+      </c>
+      <c r="C182" t="s">
+        <v>580</v>
+      </c>
+      <c r="D182" t="s">
+        <v>590</v>
+      </c>
+      <c r="E182" t="s">
         <v>9</v>
       </c>
     </row>
